--- a/src/assets/prop.xlsx
+++ b/src/assets/prop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,21 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;prop_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●</t>
-  </si>
-  <si>
-    <t>&lt;/prop_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +165,49 @@
   </si>
   <si>
     <t>市场基准价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"</t>
+  </si>
+  <si>
+    <t>", "inPrice":"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>", "name":"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>", "outPrice":"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>", "type":"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1265,1625 +1293,1468 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="A2:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="3.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="7"/>
-    <col min="11" max="11" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.5" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5">
         <v>101</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5">
         <v>2</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="5">
-        <v>101</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5">
         <v>102</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5">
         <v>4</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="5">
-        <v>102</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5">
         <v>103</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5">
         <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="5">
-        <v>103</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5">
         <v>104</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H5" s="5">
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="5">
-        <v>104</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5">
         <v>105</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H6" s="5">
         <v>7</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="5">
-        <v>105</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5">
         <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5">
         <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="5">
-        <v>106</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5">
         <v>4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5">
         <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="5">
-        <v>107</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5">
         <v>108</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H9" s="5">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="5">
-        <v>108</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5">
         <v>109</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H10" s="5">
         <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="5">
-        <v>109</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5">
         <v>110</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="5">
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H11" s="5">
         <v>14</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="5">
-        <v>110</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5">
         <v>201</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="5">
         <v>4</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="5">
-        <v>201</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5">
         <v>202</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5">
         <v>7</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="5">
-        <v>202</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5">
         <v>203</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H14" s="5">
         <v>7</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="5">
-        <v>203</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" s="5">
         <v>204</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="5">
         <v>3</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H15" s="5">
         <v>12</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="5">
-        <v>204</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5">
         <v>205</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" s="5">
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H16" s="5">
         <v>11</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="5">
-        <v>205</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5">
         <v>206</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="5">
         <v>4</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H17" s="5">
         <v>14</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="5">
-        <v>206</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5">
         <v>207</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H18" s="5">
         <v>4</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="5">
-        <v>207</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5">
         <v>208</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="5">
         <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H19" s="5">
         <v>10</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="5">
-        <v>208</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5">
         <v>209</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="5">
         <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H20" s="5">
         <v>17</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="5">
-        <v>209</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5">
         <v>301</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H21" s="5">
         <v>8</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="5">
-        <v>301</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5">
         <v>302</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="5">
         <v>4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H22" s="5">
         <v>11</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" s="5">
-        <v>302</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" s="5">
         <v>303</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H23" s="5">
         <v>11</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="5">
-        <v>303</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5">
         <v>304</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" s="5">
         <v>4</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H24" s="5">
         <v>13</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="5">
-        <v>304</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5">
         <v>305</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" s="5">
         <v>3</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H25" s="5">
         <v>13</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="5">
-        <v>305</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5">
         <v>306</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F26" s="5">
         <v>3</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H26" s="5">
         <v>14</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="5">
-        <v>306</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B27" s="5">
         <v>307</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F27" s="5">
         <v>3</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H27" s="5">
         <v>15</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="5">
-        <v>307</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5">
         <v>308</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F28" s="5">
         <v>5</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H28" s="5">
         <v>18</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="5">
-        <v>308</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5">
         <v>309</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F29" s="5">
         <v>6</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H29" s="5">
         <v>20</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" s="5">
-        <v>309</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B30" s="5">
         <v>401</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F30" s="5">
         <v>4</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H30" s="5">
         <v>14</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="5">
-        <v>401</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5">
         <v>402</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F31" s="5">
         <v>5</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H31" s="5">
         <v>16</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="5">
-        <v>402</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5">
         <v>403</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F32" s="5">
         <v>7</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H32" s="5">
         <v>19</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="5">
-        <v>403</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5">
         <v>404</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F33" s="5">
         <v>9</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H33" s="5">
         <v>22</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="5">
-        <v>404</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" s="5">
         <v>405</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F34" s="5">
         <v>11</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H34" s="5">
         <v>25</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="5">
-        <v>405</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B35" s="5">
         <v>406</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F35" s="5">
         <v>13</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H35" s="5">
         <v>28</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" s="5">
-        <v>406</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B36" s="5">
         <v>407</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F36" s="5">
         <v>15</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H36" s="5">
         <v>31</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" s="5">
-        <v>407</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>501</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2">
         <v>3</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H37" s="2">
         <v>10</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L37" s="2">
-        <v>501</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>502</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2">
         <v>5</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H38" s="2">
         <v>15</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L38" s="2">
-        <v>502</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2">
         <v>503</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H39" s="2">
         <v>7</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L39" s="2">
-        <v>503</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/assets/prop.xlsx
+++ b/src/assets/prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="63">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>特殊商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估算单个价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,12 +264,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -280,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +333,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,9 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="A2:K39"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="A2:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2646,111 +2682,111 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="8">
         <v>501</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="E37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="8">
         <v>10</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="5" t="s">
+      <c r="I37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="8">
         <v>502</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="E38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="8">
         <v>5</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="G38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="8">
         <v>15</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J38" s="5" t="s">
+      <c r="I38" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="A39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="8">
         <v>503</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="E39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="8">
         <v>2</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="8">
         <v>7</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" s="5" t="s">
+      <c r="I39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="8" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="2"/>
@@ -2765,12 +2801,636 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
+        <v>101</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>107</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>109</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>110</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>201</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>202</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>203</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>204</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
+        <v>205</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5">
+        <v>206</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
+        <v>207</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
+        <v>208</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
+        <v>209</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5">
+        <v>301</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <v>302</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
+        <v>303</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
+        <v>304</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
+        <v>305</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5">
+        <v>306</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
+        <v>307</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
+        <v>308</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>18</v>
+      </c>
+      <c r="G28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5">
+        <v>309</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5">
+        <v>401</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5">
+        <v>402</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5">
+        <v>403</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5">
+        <v>404</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5">
+        <v>405</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5">
+        <v>406</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5">
+        <v>407</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5">
+        <v>31</v>
+      </c>
+      <c r="G36" s="1">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
